--- a/Seq_Hyd_Maven_Proj/target/test-classes/TestData/Test_Scenario.xlsx
+++ b/Seq_Hyd_Maven_Proj/target/test-classes/TestData/Test_Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="3045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="2265"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword_Scenario" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="ModuleWiseTestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -409,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -463,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -502,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
